--- a/biology/Microbiologie/Amarrage_macromoléculaire/Amarrage_macromoléculaire.xlsx
+++ b/biology/Microbiologie/Amarrage_macromoléculaire/Amarrage_macromoléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amarrage_macromol%C3%A9culaire</t>
+          <t>Amarrage_macromoléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amarrage macromoléculaire (en anglais : macromolecular docking) est la modélisation informatique de la structure quaternaire de complexes formés par plusieurs macromolécules biologiques en interaction. Les modélisations les plus courantes étant celles des complexes protéine-protéine et protéine-acide nucléique.
 L'amarrage vise à prédire la structure tri-dimensionnelle du complexe telle qu'elle est dans l'organisme vivant. La procédure peut produire plusieurs structures candidates qui vont ensuite être classées suivant leur pertinence d'apparaître dans la nature.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amarrage_macromol%C3%A9culaire</t>
+          <t>Amarrage_macromoléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle biologique de la plupart des protéines, caractérisé par les molécules avec lesquelles elles interragissent, est connu au mieux partiellement. Même les protéines participant à des mécanismes connus (comme le cycle de Krebs) peuvent avoir des partenaires d'interaction inattendus et des fonctions sans rapport avec ce mécanisme.
 Dans le cadre des interactions protéine-protéine, d'autres motivations apparaissent. Tout d'abord, les maladies génétiques (par ex. la mucoviscidose) sont causées par des protéines mal pliées ou ayant muté. On cherche donc à déterminer les interactions protéine-protéine anormales déclenchés par une mutation. Ensuite, on peut envisager la création de protéines afin qu'elles effectuent des fonctions biologiques. Pour cette tâche, la compréhension de leurs interactions est essentielle.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amarrage_macromol%C3%A9culaire</t>
+          <t>Amarrage_macromoléculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,6 +568,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amarrage_macromol%C3%A9culaire</t>
+          <t>Amarrage_macromoléculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amarrage_macromol%C3%A9culaire</t>
+          <t>Amarrage_macromoléculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
